--- a/template.xlsx
+++ b/template.xlsx
@@ -16,21 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
-    <x:t>상품명</x:t>
+    <x:t>INSERT-TEST-06</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INSERT-TEST-03</x:t>
   </x:si>
   <x:si>
     <x:t>상품코드</x:t>
   </x:si>
   <x:si>
-    <x:t>입력테스트2번파일</x:t>
+    <x:t>상품명</x:t>
   </x:si>
   <x:si>
-    <x:t>INSERT-TEST-03</x:t>
+    <x:t>입력테스트5번파일</x:t>
   </x:si>
   <x:si>
-    <x:t>INSERT-TEST-04</x:t>
+    <x:t>입력테스트2번파일</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -821,7 +824,7 @@
   <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H16" activeCellId="0" sqref="H16:H16"/>
+      <x:selection activeCell="E3" activeCellId="0" sqref="E3:E3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -832,30 +835,30 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>3</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>4</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -871,7 +874,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -887,7 +890,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.8898"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="11205" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="13380" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -18,22 +18,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <x:si>
-    <x:t>INSERT-TEST-06</x:t>
+    <x:t>입력테스트10번파일</x:t>
   </x:si>
   <x:si>
-    <x:t>INSERT-TEST-03</x:t>
+    <x:t>입력테스트5번파일</x:t>
   </x:si>
   <x:si>
-    <x:t>상품코드</x:t>
+    <x:t>INSERT-TEST-10</x:t>
   </x:si>
   <x:si>
     <x:t>상품명</x:t>
   </x:si>
   <x:si>
-    <x:t>입력테스트5번파일</x:t>
+    <x:t>INSERT-TEST-06</x:t>
   </x:si>
   <x:si>
-    <x:t>입력테스트2번파일</x:t>
+    <x:t>상품코드</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -824,7 +824,7 @@
   <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E3" activeCellId="0" sqref="E3:E3"/>
+      <x:selection activeCell="B8" activeCellId="0" sqref="B8:B8"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -835,7 +835,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B1" t="s">
         <x:v>3</x:v>
@@ -843,22 +843,22 @@
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B3" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -874,7 +874,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -890,7 +890,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:sheetData/>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51152777671813965" footer="0.51152777671813965"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>